--- a/CumulativeTestsByTypeByCounty/2021-02-11.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-02-11.xlsx
@@ -1071,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>46023</v>
+        <v>46159</v>
       </c>
       <c r="C2" s="4">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="D2" s="4">
-        <v>4862</v>
+        <v>5044</v>
       </c>
       <c r="E2" s="4">
-        <v>52279</v>
+        <v>52600</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>3829</v>
+        <v>3840</v>
       </c>
       <c r="C3" s="4">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D3" s="4">
-        <v>1772</v>
+        <v>1793</v>
       </c>
       <c r="E3" s="4">
-        <v>5780</v>
+        <v>5816</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>48139</v>
+        <v>48227</v>
       </c>
       <c r="C4" s="4">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="D4" s="4">
-        <v>14154</v>
+        <v>14344</v>
       </c>
       <c r="E4" s="4">
-        <v>63711</v>
+        <v>63991</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>6226</v>
+        <v>6247</v>
       </c>
       <c r="C5" s="4">
-        <v>1941</v>
+        <v>1955</v>
       </c>
       <c r="D5" s="4">
-        <v>3852</v>
+        <v>3918</v>
       </c>
       <c r="E5" s="4">
-        <v>12019</v>
+        <v>12120</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1139,16 +1139,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>2674</v>
+        <v>2675</v>
       </c>
       <c r="C6" s="4">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D6" s="4">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E6" s="4">
-        <v>3449</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>39547</v>
+        <v>39875</v>
       </c>
       <c r="C8" s="4">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="D8" s="4">
-        <v>3235</v>
+        <v>3260</v>
       </c>
       <c r="E8" s="4">
-        <v>43721</v>
+        <v>44076</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>15016</v>
+        <v>15086</v>
       </c>
       <c r="C9" s="4">
         <v>389</v>
       </c>
       <c r="D9" s="4">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="E9" s="4">
-        <v>16010</v>
+        <v>16093</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1207,16 +1207,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="C10" s="4">
         <v>39</v>
       </c>
       <c r="D10" s="4">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E10" s="4">
-        <v>2079</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>6575</v>
+        <v>6607</v>
       </c>
       <c r="C11" s="4">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D11" s="4">
-        <v>2338</v>
+        <v>2356</v>
       </c>
       <c r="E11" s="4">
-        <v>9300</v>
+        <v>9352</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>42656</v>
+        <v>42902</v>
       </c>
       <c r="C12" s="4">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D12" s="4">
-        <v>11843</v>
+        <v>12049</v>
       </c>
       <c r="E12" s="4">
-        <v>55504</v>
+        <v>55957</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1258,16 +1258,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="C13" s="4">
         <v>114</v>
       </c>
       <c r="D13" s="4">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="E13" s="4">
-        <v>1881</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>27355</v>
+        <v>27489</v>
       </c>
       <c r="C14" s="4">
-        <v>4742</v>
+        <v>4768</v>
       </c>
       <c r="D14" s="4">
-        <v>5027</v>
+        <v>5057</v>
       </c>
       <c r="E14" s="4">
-        <v>37124</v>
+        <v>37314</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>206680</v>
+        <v>207979</v>
       </c>
       <c r="C15" s="4">
-        <v>12611</v>
+        <v>12659</v>
       </c>
       <c r="D15" s="4">
-        <v>8232</v>
+        <v>8400</v>
       </c>
       <c r="E15" s="4">
-        <v>227523</v>
+        <v>229038</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>1447802</v>
+        <v>1460783</v>
       </c>
       <c r="C16" s="4">
-        <v>40195</v>
+        <v>40276</v>
       </c>
       <c r="D16" s="4">
-        <v>133527</v>
+        <v>134869</v>
       </c>
       <c r="E16" s="4">
-        <v>1621524</v>
+        <v>1635928</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,16 +1326,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>4920</v>
+        <v>4953</v>
       </c>
       <c r="C17" s="4">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D17" s="4">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E17" s="4">
-        <v>5590</v>
+        <v>5626</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1360,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>7851</v>
+        <v>7859</v>
       </c>
       <c r="C19" s="4">
         <v>456</v>
       </c>
       <c r="D19" s="4">
-        <v>3687</v>
+        <v>3726</v>
       </c>
       <c r="E19" s="4">
-        <v>11994</v>
+        <v>12041</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>52646</v>
+        <v>52880</v>
       </c>
       <c r="C20" s="4">
-        <v>9624</v>
+        <v>9629</v>
       </c>
       <c r="D20" s="4">
-        <v>6216</v>
+        <v>6448</v>
       </c>
       <c r="E20" s="4">
-        <v>68486</v>
+        <v>68957</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>259513</v>
+        <v>260662</v>
       </c>
       <c r="C21" s="4">
-        <v>8201</v>
+        <v>8249</v>
       </c>
       <c r="D21" s="4">
-        <v>20145</v>
+        <v>20282</v>
       </c>
       <c r="E21" s="4">
-        <v>287859</v>
+        <v>289193</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>201544</v>
+        <v>202786</v>
       </c>
       <c r="C22" s="4">
-        <v>5191</v>
+        <v>5204</v>
       </c>
       <c r="D22" s="4">
-        <v>11256</v>
+        <v>11352</v>
       </c>
       <c r="E22" s="4">
-        <v>217991</v>
+        <v>219342</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,16 +1428,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>8194</v>
+        <v>8198</v>
       </c>
       <c r="C23" s="4">
         <v>105</v>
       </c>
       <c r="D23" s="4">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E23" s="4">
-        <v>8733</v>
+        <v>8740</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1451,10 +1451,10 @@
         <v>108</v>
       </c>
       <c r="D24" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E24" s="4">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1462,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>11914</v>
+        <v>12103</v>
       </c>
       <c r="C25" s="4">
-        <v>1198</v>
+        <v>1210</v>
       </c>
       <c r="D25" s="4">
-        <v>1303</v>
+        <v>1312</v>
       </c>
       <c r="E25" s="4">
-        <v>14415</v>
+        <v>14625</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>14962</v>
+        <v>15045</v>
       </c>
       <c r="C26" s="4">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="D26" s="4">
-        <v>14130</v>
+        <v>14131</v>
       </c>
       <c r="E26" s="4">
-        <v>29788</v>
+        <v>29874</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>11850</v>
+        <v>11947</v>
       </c>
       <c r="C27" s="4">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D27" s="4">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="E27" s="4">
-        <v>13653</v>
+        <v>13755</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>27747</v>
+        <v>28011</v>
       </c>
       <c r="C28" s="4">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D28" s="4">
-        <v>2190</v>
+        <v>2225</v>
       </c>
       <c r="E28" s="4">
-        <v>30938</v>
+        <v>31238</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>27463</v>
+        <v>27682</v>
       </c>
       <c r="C29" s="4">
-        <v>1472</v>
+        <v>1476</v>
       </c>
       <c r="D29" s="4">
-        <v>3999</v>
+        <v>4030</v>
       </c>
       <c r="E29" s="4">
-        <v>32934</v>
+        <v>33188</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>11804</v>
+        <v>11842</v>
       </c>
       <c r="C30" s="4">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D30" s="4">
-        <v>3528</v>
+        <v>3531</v>
       </c>
       <c r="E30" s="4">
-        <v>15588</v>
+        <v>15631</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1564,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>4646</v>
+        <v>4671</v>
       </c>
       <c r="C31" s="4">
         <v>212</v>
       </c>
       <c r="D31" s="4">
-        <v>3633</v>
+        <v>3653</v>
       </c>
       <c r="E31" s="4">
-        <v>8491</v>
+        <v>8536</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>210405</v>
+        <v>211133</v>
       </c>
       <c r="C32" s="4">
-        <v>7053</v>
+        <v>7073</v>
       </c>
       <c r="D32" s="4">
-        <v>29027</v>
+        <v>29138</v>
       </c>
       <c r="E32" s="4">
-        <v>246485</v>
+        <v>247344</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>5052</v>
+        <v>5070</v>
       </c>
       <c r="C33" s="4">
         <v>329</v>
       </c>
       <c r="D33" s="4">
-        <v>1134</v>
+        <v>1193</v>
       </c>
       <c r="E33" s="4">
-        <v>6515</v>
+        <v>6592</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1615,16 +1615,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>1446</v>
+        <v>1450</v>
       </c>
       <c r="C34" s="4">
         <v>741</v>
       </c>
       <c r="D34" s="4">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E34" s="4">
-        <v>2357</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>10682</v>
+        <v>10742</v>
       </c>
       <c r="C35" s="4">
-        <v>3061</v>
+        <v>3065</v>
       </c>
       <c r="D35" s="4">
-        <v>2342</v>
+        <v>2435</v>
       </c>
       <c r="E35" s="4">
-        <v>16085</v>
+        <v>16242</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1649,16 +1649,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>3495</v>
+        <v>3498</v>
       </c>
       <c r="C36" s="4">
         <v>216</v>
       </c>
       <c r="D36" s="4">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="E36" s="4">
-        <v>5159</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>6833</v>
+        <v>6860</v>
       </c>
       <c r="C37" s="4">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D37" s="4">
-        <v>869</v>
+        <v>880</v>
       </c>
       <c r="E37" s="4">
-        <v>8227</v>
+        <v>8266</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>19878</v>
+        <v>19901</v>
       </c>
       <c r="C38" s="4">
         <v>710</v>
       </c>
       <c r="D38" s="4">
-        <v>5575</v>
+        <v>5596</v>
       </c>
       <c r="E38" s="4">
-        <v>26163</v>
+        <v>26207</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1700,7 +1700,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>2582</v>
+        <v>2593</v>
       </c>
       <c r="C39" s="4">
         <v>295</v>
@@ -1709,7 +1709,7 @@
         <v>3614</v>
       </c>
       <c r="E39" s="4">
-        <v>6491</v>
+        <v>6502</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1717,16 +1717,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>3692</v>
+        <v>3698</v>
       </c>
       <c r="C40" s="4">
         <v>358</v>
       </c>
       <c r="D40" s="4">
-        <v>906</v>
+        <v>939</v>
       </c>
       <c r="E40" s="4">
-        <v>4956</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1734,7 +1734,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="C41" s="4">
         <v>15</v>
@@ -1743,7 +1743,7 @@
         <v>227</v>
       </c>
       <c r="E41" s="4">
-        <v>950</v>
+        <v>957</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1751,16 +1751,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>1624</v>
+        <v>1629</v>
       </c>
       <c r="C42" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D42" s="4">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="E42" s="4">
-        <v>3306</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1768,16 +1768,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>2793</v>
+        <v>2803</v>
       </c>
       <c r="C43" s="4">
         <v>76</v>
       </c>
       <c r="D43" s="4">
-        <v>2156</v>
+        <v>2159</v>
       </c>
       <c r="E43" s="4">
-        <v>5025</v>
+        <v>5038</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>751859</v>
+        <v>756040</v>
       </c>
       <c r="C44" s="4">
-        <v>73629</v>
+        <v>73767</v>
       </c>
       <c r="D44" s="4">
-        <v>62743</v>
+        <v>63721</v>
       </c>
       <c r="E44" s="4">
-        <v>888231</v>
+        <v>893528</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1802,7 +1802,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C45" s="4">
         <v>85</v>
@@ -1811,7 +1811,7 @@
         <v>1028</v>
       </c>
       <c r="E45" s="4">
-        <v>2056</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>10315</v>
+        <v>10338</v>
       </c>
       <c r="C46" s="4">
         <v>254</v>
       </c>
       <c r="D46" s="4">
-        <v>2661</v>
+        <v>2779</v>
       </c>
       <c r="E46" s="4">
-        <v>13230</v>
+        <v>13371</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>80125</v>
+        <v>80552</v>
       </c>
       <c r="C47" s="4">
-        <v>6188</v>
+        <v>6206</v>
       </c>
       <c r="D47" s="4">
-        <v>13107</v>
+        <v>13210</v>
       </c>
       <c r="E47" s="4">
-        <v>99420</v>
+        <v>99968</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>5947</v>
+        <v>5971</v>
       </c>
       <c r="C48" s="4">
         <v>288</v>
       </c>
       <c r="D48" s="4">
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c r="E48" s="4">
-        <v>8087</v>
+        <v>8113</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1870,16 +1870,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="C49" s="4">
         <v>14</v>
       </c>
       <c r="D49" s="4">
-        <v>1112</v>
+        <v>1142</v>
       </c>
       <c r="E49" s="4">
-        <v>2433</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>20767</v>
+        <v>20869</v>
       </c>
       <c r="C50" s="4">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="D50" s="4">
-        <v>3753</v>
+        <v>3767</v>
       </c>
       <c r="E50" s="4">
-        <v>25718</v>
+        <v>25837</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>73229</v>
+        <v>73654</v>
       </c>
       <c r="C51" s="4">
-        <v>2062</v>
+        <v>2070</v>
       </c>
       <c r="D51" s="4">
-        <v>2180</v>
+        <v>2203</v>
       </c>
       <c r="E51" s="4">
-        <v>77471</v>
+        <v>77927</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1921,7 +1921,7 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C52" s="4">
         <v>20</v>
@@ -1930,7 +1930,7 @@
         <v>595</v>
       </c>
       <c r="E52" s="4">
-        <v>1225</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1938,16 +1938,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>3715</v>
+        <v>3804</v>
       </c>
       <c r="C53" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D53" s="4">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="E53" s="4">
-        <v>4702</v>
+        <v>4795</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1955,16 +1955,16 @@
         <v>57</v>
       </c>
       <c r="B54" s="4">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C54" s="4">
         <v>12</v>
       </c>
       <c r="D54" s="4">
-        <v>1683</v>
+        <v>1705</v>
       </c>
       <c r="E54" s="4">
-        <v>2611</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1972,16 +1972,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>2222</v>
+        <v>2225</v>
       </c>
       <c r="C55" s="4">
         <v>18</v>
       </c>
       <c r="D55" s="4">
-        <v>1325</v>
+        <v>1330</v>
       </c>
       <c r="E55" s="4">
-        <v>3565</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1989,7 +1989,7 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>1945</v>
+        <v>1948</v>
       </c>
       <c r="C56" s="4">
         <v>12</v>
@@ -1998,7 +1998,7 @@
         <v>99</v>
       </c>
       <c r="E56" s="4">
-        <v>2056</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2006,16 +2006,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C57" s="4">
         <v>251</v>
       </c>
       <c r="D57" s="4">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="E57" s="4">
-        <v>2472</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>1927060</v>
+        <v>1934887</v>
       </c>
       <c r="C58" s="4">
-        <v>121080</v>
+        <v>121337</v>
       </c>
       <c r="D58" s="4">
-        <v>133795</v>
+        <v>135678</v>
       </c>
       <c r="E58" s="4">
-        <v>2181935</v>
+        <v>2191902</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2040,16 +2040,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>6954</v>
+        <v>7068</v>
       </c>
       <c r="C59" s="4">
         <v>421</v>
       </c>
       <c r="D59" s="4">
-        <v>1721</v>
+        <v>1727</v>
       </c>
       <c r="E59" s="4">
-        <v>9096</v>
+        <v>9216</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>7726</v>
+        <v>7748</v>
       </c>
       <c r="C60" s="4">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D60" s="4">
-        <v>1896</v>
+        <v>1901</v>
       </c>
       <c r="E60" s="4">
-        <v>9793</v>
+        <v>9821</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2074,16 +2074,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>4159</v>
+        <v>4167</v>
       </c>
       <c r="C61" s="4">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D61" s="4">
-        <v>1690</v>
+        <v>1704</v>
       </c>
       <c r="E61" s="4">
-        <v>6542</v>
+        <v>6565</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,16 +2091,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>1523</v>
+        <v>1530</v>
       </c>
       <c r="C62" s="4">
         <v>206</v>
       </c>
       <c r="D62" s="4">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="E62" s="4">
-        <v>2592</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>468728</v>
+        <v>470710</v>
       </c>
       <c r="C63" s="4">
-        <v>54180</v>
+        <v>54340</v>
       </c>
       <c r="D63" s="4">
-        <v>55045</v>
+        <v>56231</v>
       </c>
       <c r="E63" s="4">
-        <v>577953</v>
+        <v>581281</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2142,7 +2142,7 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>8746</v>
+        <v>8753</v>
       </c>
       <c r="C65" s="4">
         <v>81</v>
@@ -2151,7 +2151,7 @@
         <v>699</v>
       </c>
       <c r="E65" s="4">
-        <v>9526</v>
+        <v>9533</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2159,16 +2159,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="C66" s="4">
         <v>308</v>
       </c>
       <c r="D66" s="4">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E66" s="4">
-        <v>1913</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>15122</v>
+        <v>15325</v>
       </c>
       <c r="C67" s="4">
-        <v>2073</v>
+        <v>2094</v>
       </c>
       <c r="D67" s="4">
-        <v>1109</v>
+        <v>1125</v>
       </c>
       <c r="E67" s="4">
-        <v>18304</v>
+        <v>18544</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>4120</v>
+        <v>4136</v>
       </c>
       <c r="C68" s="4">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D68" s="4">
-        <v>2717</v>
+        <v>2719</v>
       </c>
       <c r="E68" s="4">
-        <v>7151</v>
+        <v>7170</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>52359</v>
+        <v>52474</v>
       </c>
       <c r="C69" s="4">
-        <v>4130</v>
+        <v>4146</v>
       </c>
       <c r="D69" s="4">
-        <v>11984</v>
+        <v>12283</v>
       </c>
       <c r="E69" s="4">
-        <v>68473</v>
+        <v>68903</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2227,7 +2227,7 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="C70" s="4">
         <v>27</v>
@@ -2236,7 +2236,7 @@
         <v>305</v>
       </c>
       <c r="E70" s="4">
-        <v>1402</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>723674</v>
+        <v>726255</v>
       </c>
       <c r="C71" s="4">
-        <v>15413</v>
+        <v>15438</v>
       </c>
       <c r="D71" s="4">
-        <v>110546</v>
+        <v>110981</v>
       </c>
       <c r="E71" s="4">
-        <v>849633</v>
+        <v>852674</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>137510</v>
+        <v>138178</v>
       </c>
       <c r="C72" s="4">
-        <v>6563</v>
+        <v>6573</v>
       </c>
       <c r="D72" s="4">
-        <v>6829</v>
+        <v>6902</v>
       </c>
       <c r="E72" s="4">
-        <v>150902</v>
+        <v>151653</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>15203</v>
+        <v>15224</v>
       </c>
       <c r="C73" s="4">
         <v>1048</v>
       </c>
       <c r="D73" s="4">
-        <v>4319</v>
+        <v>4324</v>
       </c>
       <c r="E73" s="4">
-        <v>20570</v>
+        <v>20596</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>11191</v>
+        <v>11220</v>
       </c>
       <c r="C74" s="4">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D74" s="4">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="E74" s="4">
-        <v>12902</v>
+        <v>12934</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>21495</v>
+        <v>21535</v>
       </c>
       <c r="C75" s="4">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="D75" s="4">
-        <v>3236</v>
+        <v>3250</v>
       </c>
       <c r="E75" s="4">
-        <v>25448</v>
+        <v>25504</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>12079</v>
+        <v>12141</v>
       </c>
       <c r="C76" s="4">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D76" s="4">
-        <v>1436</v>
+        <v>1443</v>
       </c>
       <c r="E76" s="4">
-        <v>13859</v>
+        <v>13930</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2346,7 +2346,7 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="C77" s="4">
         <v>28</v>
@@ -2355,7 +2355,7 @@
         <v>218</v>
       </c>
       <c r="E77" s="4">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2366,13 +2366,13 @@
         <v>2008</v>
       </c>
       <c r="C78" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D78" s="4">
         <v>277</v>
       </c>
       <c r="E78" s="4">
-        <v>2392</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2386,10 +2386,10 @@
         <v>77</v>
       </c>
       <c r="D79" s="4">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E79" s="4">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>529535</v>
+        <v>532274</v>
       </c>
       <c r="C80" s="4">
-        <v>19896</v>
+        <v>19983</v>
       </c>
       <c r="D80" s="4">
-        <v>21413</v>
+        <v>21723</v>
       </c>
       <c r="E80" s="4">
-        <v>570844</v>
+        <v>573980</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,16 +2414,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>3771</v>
+        <v>3778</v>
       </c>
       <c r="C81" s="4">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D81" s="4">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E81" s="4">
-        <v>4736</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,16 +2431,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>12372</v>
+        <v>12388</v>
       </c>
       <c r="C82" s="4">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D82" s="4">
-        <v>2926</v>
+        <v>2938</v>
       </c>
       <c r="E82" s="4">
-        <v>15927</v>
+        <v>15956</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>14049</v>
+        <v>14135</v>
       </c>
       <c r="C83" s="4">
         <v>392</v>
       </c>
       <c r="D83" s="4">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E83" s="4">
-        <v>14919</v>
+        <v>15007</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2465,16 +2465,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>2983</v>
+        <v>2987</v>
       </c>
       <c r="C84" s="4">
         <v>195</v>
       </c>
       <c r="D84" s="4">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="E84" s="4">
-        <v>3835</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>272039</v>
+        <v>272833</v>
       </c>
       <c r="C85" s="4">
-        <v>8467</v>
+        <v>8511</v>
       </c>
       <c r="D85" s="4">
-        <v>15896</v>
+        <v>16013</v>
       </c>
       <c r="E85" s="4">
-        <v>296402</v>
+        <v>297357</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2499,16 +2499,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="C86" s="4">
         <v>45</v>
       </c>
       <c r="D86" s="4">
-        <v>1226</v>
+        <v>1230</v>
       </c>
       <c r="E86" s="4">
-        <v>2702</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>14288</v>
+        <v>14304</v>
       </c>
       <c r="C87" s="4">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D87" s="4">
-        <v>2540</v>
+        <v>2542</v>
       </c>
       <c r="E87" s="4">
-        <v>17146</v>
+        <v>17169</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2539,10 +2539,10 @@
         <v>25</v>
       </c>
       <c r="D88" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E88" s="4">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>2257</v>
+        <v>2269</v>
       </c>
       <c r="C89" s="4">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D89" s="4">
-        <v>1272</v>
+        <v>1298</v>
       </c>
       <c r="E89" s="4">
-        <v>3672</v>
+        <v>3711</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>11309</v>
+        <v>11347</v>
       </c>
       <c r="C90" s="4">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D90" s="4">
-        <v>2474</v>
+        <v>2483</v>
       </c>
       <c r="E90" s="4">
-        <v>14059</v>
+        <v>14107</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>6797</v>
+        <v>6822</v>
       </c>
       <c r="C91" s="4">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D91" s="4">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="E91" s="4">
-        <v>9002</v>
+        <v>9030</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>85350</v>
+        <v>85683</v>
       </c>
       <c r="C92" s="4">
-        <v>3425</v>
+        <v>3438</v>
       </c>
       <c r="D92" s="4">
-        <v>9392</v>
+        <v>9408</v>
       </c>
       <c r="E92" s="4">
-        <v>98167</v>
+        <v>98529</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>41602</v>
+        <v>41786</v>
       </c>
       <c r="C93" s="4">
-        <v>8986</v>
+        <v>9042</v>
       </c>
       <c r="D93" s="4">
-        <v>11210</v>
+        <v>11300</v>
       </c>
       <c r="E93" s="4">
-        <v>61798</v>
+        <v>62128</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>22626</v>
+        <v>22711</v>
       </c>
       <c r="C94" s="4">
         <v>440</v>
       </c>
       <c r="D94" s="4">
-        <v>1239</v>
+        <v>1245</v>
       </c>
       <c r="E94" s="4">
-        <v>24305</v>
+        <v>24396</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>62871</v>
+        <v>63156</v>
       </c>
       <c r="C95" s="4">
-        <v>2848</v>
+        <v>2854</v>
       </c>
       <c r="D95" s="4">
-        <v>10877</v>
+        <v>10975</v>
       </c>
       <c r="E95" s="4">
-        <v>76596</v>
+        <v>76985</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>11443</v>
+        <v>11597</v>
       </c>
       <c r="C96" s="4">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D96" s="4">
-        <v>1680</v>
+        <v>1687</v>
       </c>
       <c r="E96" s="4">
-        <v>13378</v>
+        <v>13540</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2692,10 +2692,10 @@
         <v>37</v>
       </c>
       <c r="D97" s="4">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="E97" s="4">
-        <v>2873</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2703,16 +2703,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>4333</v>
+        <v>4351</v>
       </c>
       <c r="C98" s="4">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D98" s="4">
         <v>850</v>
       </c>
       <c r="E98" s="4">
-        <v>5468</v>
+        <v>5488</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2720,16 +2720,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>1130</v>
+        <v>1135</v>
       </c>
       <c r="C99" s="4">
         <v>492</v>
       </c>
       <c r="D99" s="4">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="E99" s="4">
-        <v>3150</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2737,7 +2737,7 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="C100" s="4">
         <v>176</v>
@@ -2746,7 +2746,7 @@
         <v>783</v>
       </c>
       <c r="E100" s="4">
-        <v>2322</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>16893</v>
+        <v>17053</v>
       </c>
       <c r="C101" s="4">
-        <v>3053</v>
+        <v>3057</v>
       </c>
       <c r="D101" s="4">
-        <v>4369</v>
+        <v>4422</v>
       </c>
       <c r="E101" s="4">
-        <v>24315</v>
+        <v>24532</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>3242770</v>
+        <v>3259725</v>
       </c>
       <c r="C102" s="4">
-        <v>120563</v>
+        <v>121085</v>
       </c>
       <c r="D102" s="4">
-        <v>192372</v>
+        <v>194527</v>
       </c>
       <c r="E102" s="4">
-        <v>3555705</v>
+        <v>3575337</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>51421</v>
+        <v>51535</v>
       </c>
       <c r="C103" s="4">
-        <v>6610</v>
+        <v>6661</v>
       </c>
       <c r="D103" s="4">
-        <v>6291</v>
+        <v>6414</v>
       </c>
       <c r="E103" s="4">
-        <v>64322</v>
+        <v>64610</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2805,7 +2805,7 @@
         <v>107</v>
       </c>
       <c r="B104" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C104" s="4">
         <v>42</v>
@@ -2814,7 +2814,7 @@
         <v>88</v>
       </c>
       <c r="E104" s="4">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" ht="14" customHeight="1">
@@ -2822,16 +2822,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="C105" s="4">
         <v>34</v>
       </c>
       <c r="D105" s="4">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="E105" s="4">
-        <v>2334</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>191209</v>
+        <v>192904</v>
       </c>
       <c r="C106" s="4">
-        <v>9789</v>
+        <v>9822</v>
       </c>
       <c r="D106" s="4">
-        <v>9449</v>
+        <v>9514</v>
       </c>
       <c r="E106" s="4">
-        <v>210447</v>
+        <v>212240</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2862,10 +2862,10 @@
         <v>348</v>
       </c>
       <c r="D107" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E107" s="4">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>23119</v>
+        <v>23190</v>
       </c>
       <c r="C108" s="4">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D108" s="4">
-        <v>5340</v>
+        <v>5407</v>
       </c>
       <c r="E108" s="4">
-        <v>30466</v>
+        <v>30607</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>375045</v>
+        <v>376415</v>
       </c>
       <c r="C109" s="4">
-        <v>13639</v>
+        <v>13696</v>
       </c>
       <c r="D109" s="4">
-        <v>70719</v>
+        <v>70981</v>
       </c>
       <c r="E109" s="4">
-        <v>459403</v>
+        <v>461092</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>29128</v>
+        <v>29161</v>
       </c>
       <c r="C110" s="4">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D110" s="4">
-        <v>4291</v>
+        <v>4299</v>
       </c>
       <c r="E110" s="4">
-        <v>34363</v>
+        <v>34405</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>6805</v>
+        <v>6824</v>
       </c>
       <c r="C111" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D111" s="4">
-        <v>2560</v>
+        <v>2567</v>
       </c>
       <c r="E111" s="4">
-        <v>9441</v>
+        <v>9468</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>30318</v>
+        <v>30372</v>
       </c>
       <c r="C112" s="4">
-        <v>2214</v>
+        <v>2217</v>
       </c>
       <c r="D112" s="4">
-        <v>14573</v>
+        <v>14717</v>
       </c>
       <c r="E112" s="4">
-        <v>47105</v>
+        <v>47306</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>14827</v>
+        <v>14882</v>
       </c>
       <c r="C113" s="4">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="D113" s="4">
-        <v>2019</v>
+        <v>2052</v>
       </c>
       <c r="E113" s="4">
-        <v>18640</v>
+        <v>18730</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>13446</v>
+        <v>13473</v>
       </c>
       <c r="C114" s="4">
         <v>318</v>
       </c>
       <c r="D114" s="4">
-        <v>1832</v>
+        <v>1883</v>
       </c>
       <c r="E114" s="4">
-        <v>15596</v>
+        <v>15674</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>13836</v>
+        <v>13848</v>
       </c>
       <c r="C115" s="4">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D115" s="4">
-        <v>3118</v>
+        <v>3134</v>
       </c>
       <c r="E115" s="4">
-        <v>17365</v>
+        <v>17394</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,7 +3009,7 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="C116" s="4">
         <v>29</v>
@@ -3018,7 +3018,7 @@
         <v>775</v>
       </c>
       <c r="E116" s="4">
-        <v>2931</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>64651</v>
+        <v>65010</v>
       </c>
       <c r="C117" s="4">
-        <v>3342</v>
+        <v>3346</v>
       </c>
       <c r="D117" s="4">
-        <v>7005</v>
+        <v>7067</v>
       </c>
       <c r="E117" s="4">
-        <v>74998</v>
+        <v>75423</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>7757</v>
+        <v>7797</v>
       </c>
       <c r="C118" s="4">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D118" s="4">
-        <v>2512</v>
+        <v>2556</v>
       </c>
       <c r="E118" s="4">
-        <v>11339</v>
+        <v>11424</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3060,16 +3060,16 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C119" s="4">
         <v>8</v>
       </c>
       <c r="D119" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E119" s="4">
-        <v>557</v>
+        <v>561</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3077,7 +3077,7 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>1470</v>
+        <v>1481</v>
       </c>
       <c r="C120" s="4">
         <v>167</v>
@@ -3086,7 +3086,7 @@
         <v>223</v>
       </c>
       <c r="E120" s="4">
-        <v>1860</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>6221</v>
+        <v>6235</v>
       </c>
       <c r="C121" s="4">
         <v>112</v>
       </c>
       <c r="D121" s="4">
-        <v>904</v>
+        <v>917</v>
       </c>
       <c r="E121" s="4">
-        <v>7237</v>
+        <v>7264</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>11394</v>
+        <v>11433</v>
       </c>
       <c r="C122" s="4">
         <v>2473</v>
       </c>
       <c r="D122" s="4">
-        <v>2423</v>
+        <v>2444</v>
       </c>
       <c r="E122" s="4">
-        <v>16290</v>
+        <v>16350</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3128,16 +3128,16 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="C123" s="4">
         <v>25</v>
       </c>
       <c r="D123" s="4">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E123" s="4">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>139077</v>
+        <v>139611</v>
       </c>
       <c r="C124" s="4">
-        <v>11416</v>
+        <v>11441</v>
       </c>
       <c r="D124" s="4">
-        <v>21846</v>
+        <v>22407</v>
       </c>
       <c r="E124" s="4">
-        <v>172339</v>
+        <v>173459</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3162,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>11555</v>
+        <v>11570</v>
       </c>
       <c r="C125" s="4">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="D125" s="4">
-        <v>2868</v>
+        <v>2873</v>
       </c>
       <c r="E125" s="4">
-        <v>14866</v>
+        <v>14894</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>41445</v>
+        <v>41704</v>
       </c>
       <c r="C126" s="4">
-        <v>6745</v>
+        <v>6775</v>
       </c>
       <c r="D126" s="4">
-        <v>10000</v>
+        <v>10029</v>
       </c>
       <c r="E126" s="4">
-        <v>58190</v>
+        <v>58508</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>99750</v>
+        <v>100036</v>
       </c>
       <c r="C127" s="4">
-        <v>6071</v>
+        <v>6081</v>
       </c>
       <c r="D127" s="4">
-        <v>10576</v>
+        <v>10644</v>
       </c>
       <c r="E127" s="4">
-        <v>116397</v>
+        <v>116761</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3213,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>5303</v>
+        <v>5343</v>
       </c>
       <c r="C128" s="4">
         <v>188</v>
       </c>
       <c r="D128" s="4">
-        <v>2155</v>
+        <v>2170</v>
       </c>
       <c r="E128" s="4">
-        <v>7646</v>
+        <v>7701</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>11744</v>
+        <v>11947</v>
       </c>
       <c r="C129" s="4">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D129" s="4">
-        <v>3227</v>
+        <v>3297</v>
       </c>
       <c r="E129" s="4">
-        <v>15332</v>
+        <v>15606</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>86617</v>
+        <v>86901</v>
       </c>
       <c r="C130" s="4">
-        <v>4686</v>
+        <v>4696</v>
       </c>
       <c r="D130" s="4">
-        <v>10856</v>
+        <v>10951</v>
       </c>
       <c r="E130" s="4">
-        <v>102159</v>
+        <v>102548</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>18928</v>
+        <v>18991</v>
       </c>
       <c r="C131" s="4">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="D131" s="4">
-        <v>5325</v>
+        <v>5470</v>
       </c>
       <c r="E131" s="4">
-        <v>25390</v>
+        <v>25600</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3304,10 +3304,10 @@
         <v>1</v>
       </c>
       <c r="D133" s="4">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="E133" s="4">
-        <v>483</v>
+        <v>519</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>26843</v>
+        <v>26954</v>
       </c>
       <c r="C134" s="4">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="D134" s="4">
-        <v>15509</v>
+        <v>15521</v>
       </c>
       <c r="E134" s="4">
-        <v>42898</v>
+        <v>43024</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3338,10 +3338,10 @@
         <v>36</v>
       </c>
       <c r="D135" s="4">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E135" s="4">
-        <v>1791</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3366,7 +3366,7 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="C137" s="4">
         <v>39</v>
@@ -3375,7 +3375,7 @@
         <v>83</v>
       </c>
       <c r="E137" s="4">
-        <v>1962</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>23089</v>
+        <v>23242</v>
       </c>
       <c r="C138" s="4">
-        <v>3743</v>
+        <v>3772</v>
       </c>
       <c r="D138" s="4">
-        <v>4384</v>
+        <v>4447</v>
       </c>
       <c r="E138" s="4">
-        <v>31216</v>
+        <v>31461</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3406,10 +3406,10 @@
         <v>34</v>
       </c>
       <c r="D139" s="4">
-        <v>1794</v>
+        <v>1799</v>
       </c>
       <c r="E139" s="4">
-        <v>2453</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3417,16 +3417,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>6293</v>
+        <v>6305</v>
       </c>
       <c r="C140" s="4">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D140" s="4">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E140" s="4">
-        <v>6753</v>
+        <v>6770</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>18750</v>
+        <v>18804</v>
       </c>
       <c r="C141" s="4">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="D141" s="4">
-        <v>2260</v>
+        <v>2284</v>
       </c>
       <c r="E141" s="4">
-        <v>23013</v>
+        <v>23097</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,16 +3451,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>5011</v>
+        <v>5023</v>
       </c>
       <c r="C142" s="4">
         <v>81</v>
       </c>
       <c r="D142" s="4">
-        <v>3458</v>
+        <v>3466</v>
       </c>
       <c r="E142" s="4">
-        <v>8550</v>
+        <v>8570</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,16 +3468,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>13897</v>
+        <v>14007</v>
       </c>
       <c r="C143" s="4">
         <v>586</v>
       </c>
       <c r="D143" s="4">
-        <v>2377</v>
+        <v>2386</v>
       </c>
       <c r="E143" s="4">
-        <v>16860</v>
+        <v>16979</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>10030</v>
+        <v>10075</v>
       </c>
       <c r="C144" s="4">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D144" s="4">
-        <v>1987</v>
+        <v>2007</v>
       </c>
       <c r="E144" s="4">
-        <v>12389</v>
+        <v>12456</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>6891</v>
+        <v>6916</v>
       </c>
       <c r="C145" s="4">
         <v>198</v>
       </c>
       <c r="D145" s="4">
-        <v>1982</v>
+        <v>1991</v>
       </c>
       <c r="E145" s="4">
-        <v>9071</v>
+        <v>9105</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>8110</v>
+        <v>8135</v>
       </c>
       <c r="C146" s="4">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D146" s="4">
-        <v>1150</v>
+        <v>1165</v>
       </c>
       <c r="E146" s="4">
-        <v>9711</v>
+        <v>9755</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>43330</v>
+        <v>43563</v>
       </c>
       <c r="C147" s="4">
-        <v>2767</v>
+        <v>2782</v>
       </c>
       <c r="D147" s="4">
-        <v>3808</v>
+        <v>3840</v>
       </c>
       <c r="E147" s="4">
-        <v>49905</v>
+        <v>50185</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>25983</v>
+        <v>26057</v>
       </c>
       <c r="C148" s="4">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D148" s="4">
-        <v>3293</v>
+        <v>3304</v>
       </c>
       <c r="E148" s="4">
-        <v>29830</v>
+        <v>29918</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3573,13 +3573,13 @@
         <v>235</v>
       </c>
       <c r="C149" s="4">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D149" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E149" s="4">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3587,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>4283</v>
+        <v>4300</v>
       </c>
       <c r="C150" s="4">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="D150" s="4">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="E150" s="4">
-        <v>5608</v>
+        <v>5635</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,16 +3604,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>8505</v>
+        <v>8601</v>
       </c>
       <c r="C151" s="4">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D151" s="4">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="E151" s="4">
-        <v>9476</v>
+        <v>9576</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>173015</v>
+        <v>173341</v>
       </c>
       <c r="C153" s="4">
-        <v>6142</v>
+        <v>6147</v>
       </c>
       <c r="D153" s="4">
-        <v>74879</v>
+        <v>75229</v>
       </c>
       <c r="E153" s="4">
-        <v>254036</v>
+        <v>254717</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3655,7 +3655,7 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>2669</v>
+        <v>2676</v>
       </c>
       <c r="C154" s="4">
         <v>82</v>
@@ -3664,7 +3664,7 @@
         <v>1281</v>
       </c>
       <c r="E154" s="4">
-        <v>4032</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,16 +3672,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>10633</v>
+        <v>10664</v>
       </c>
       <c r="C155" s="4">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D155" s="4">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="E155" s="4">
-        <v>12081</v>
+        <v>12120</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,16 +3689,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>2004</v>
+        <v>2013</v>
       </c>
       <c r="C156" s="4">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="D156" s="4">
-        <v>1001</v>
+        <v>1174</v>
       </c>
       <c r="E156" s="4">
-        <v>3680</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3706,16 +3706,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="C157" s="4">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D157" s="4">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="E157" s="4">
-        <v>1619</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3723,16 +3723,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>1808</v>
+        <v>1812</v>
       </c>
       <c r="C158" s="4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D158" s="4">
         <v>195</v>
       </c>
       <c r="E158" s="4">
-        <v>2054</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>25749</v>
+        <v>26021</v>
       </c>
       <c r="C159" s="4">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D159" s="4">
-        <v>1537</v>
+        <v>1587</v>
       </c>
       <c r="E159" s="4">
-        <v>27892</v>
+        <v>28215</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>49264</v>
+        <v>49812</v>
       </c>
       <c r="C160" s="4">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D160" s="4">
-        <v>3518</v>
+        <v>3593</v>
       </c>
       <c r="E160" s="4">
-        <v>53071</v>
+        <v>53696</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3774,16 +3774,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>2121</v>
+        <v>2126</v>
       </c>
       <c r="C161" s="4">
         <v>37</v>
       </c>
       <c r="D161" s="4">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E161" s="4">
-        <v>3023</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>198207</v>
+        <v>198735</v>
       </c>
       <c r="C162" s="4">
-        <v>9260</v>
+        <v>9288</v>
       </c>
       <c r="D162" s="4">
-        <v>38481</v>
+        <v>38783</v>
       </c>
       <c r="E162" s="4">
-        <v>245948</v>
+        <v>246806</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3808,16 +3808,16 @@
         <v>166</v>
       </c>
       <c r="B163" s="4">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C163" s="4">
         <v>34</v>
       </c>
       <c r="D163" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E163" s="4">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="164" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>23167</v>
+        <v>23286</v>
       </c>
       <c r="C164" s="4">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="D164" s="4">
-        <v>3287</v>
+        <v>3309</v>
       </c>
       <c r="E164" s="4">
-        <v>27400</v>
+        <v>27543</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3842,16 +3842,16 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>1982</v>
+        <v>1984</v>
       </c>
       <c r="C165" s="4">
         <v>20</v>
       </c>
       <c r="D165" s="4">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E165" s="4">
-        <v>2211</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>38916</v>
+        <v>39152</v>
       </c>
       <c r="C166" s="4">
-        <v>5027</v>
+        <v>5052</v>
       </c>
       <c r="D166" s="4">
-        <v>28786</v>
+        <v>28966</v>
       </c>
       <c r="E166" s="4">
-        <v>72729</v>
+        <v>73170</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>13770</v>
+        <v>13844</v>
       </c>
       <c r="C167" s="4">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D167" s="4">
-        <v>4268</v>
+        <v>4287</v>
       </c>
       <c r="E167" s="4">
-        <v>18840</v>
+        <v>18934</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3893,16 +3893,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>3768</v>
+        <v>3783</v>
       </c>
       <c r="C168" s="4">
         <v>82</v>
       </c>
       <c r="D168" s="4">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E168" s="4">
-        <v>4704</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3910,16 +3910,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>4039</v>
+        <v>4042</v>
       </c>
       <c r="C169" s="4">
         <v>47</v>
       </c>
       <c r="D169" s="4">
-        <v>2025</v>
+        <v>2028</v>
       </c>
       <c r="E169" s="4">
-        <v>6111</v>
+        <v>6117</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3927,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>9039</v>
+        <v>9063</v>
       </c>
       <c r="C170" s="4">
         <v>738</v>
       </c>
       <c r="D170" s="4">
-        <v>2120</v>
+        <v>2128</v>
       </c>
       <c r="E170" s="4">
-        <v>11897</v>
+        <v>11929</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>293794</v>
+        <v>295609</v>
       </c>
       <c r="C171" s="4">
-        <v>14728</v>
+        <v>14791</v>
       </c>
       <c r="D171" s="4">
-        <v>25341</v>
+        <v>25667</v>
       </c>
       <c r="E171" s="4">
-        <v>333863</v>
+        <v>336067</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3961,16 +3961,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>6802</v>
+        <v>6818</v>
       </c>
       <c r="C172" s="4">
         <v>663</v>
       </c>
       <c r="D172" s="4">
-        <v>1367</v>
+        <v>1374</v>
       </c>
       <c r="E172" s="4">
-        <v>8832</v>
+        <v>8855</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>4774</v>
+        <v>4795</v>
       </c>
       <c r="C173" s="4">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D173" s="4">
-        <v>2774</v>
+        <v>2805</v>
       </c>
       <c r="E173" s="4">
-        <v>8168</v>
+        <v>8222</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>34853</v>
+        <v>35017</v>
       </c>
       <c r="C175" s="4">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="D175" s="4">
-        <v>3725</v>
+        <v>3741</v>
       </c>
       <c r="E175" s="4">
-        <v>39605</v>
+        <v>39788</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>22468</v>
+        <v>22502</v>
       </c>
       <c r="C176" s="4">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="D176" s="4">
-        <v>6289</v>
+        <v>6298</v>
       </c>
       <c r="E176" s="4">
-        <v>30211</v>
+        <v>30256</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>2884</v>
+        <v>2897</v>
       </c>
       <c r="C177" s="4">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D177" s="4">
-        <v>1402</v>
+        <v>1414</v>
       </c>
       <c r="E177" s="4">
-        <v>5020</v>
+        <v>5046</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4063,16 +4063,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>6331</v>
+        <v>6365</v>
       </c>
       <c r="C178" s="4">
         <v>131</v>
       </c>
       <c r="D178" s="4">
-        <v>2347</v>
+        <v>2350</v>
       </c>
       <c r="E178" s="4">
-        <v>8809</v>
+        <v>8846</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>185483</v>
+        <v>185983</v>
       </c>
       <c r="C179" s="4">
-        <v>36077</v>
+        <v>36334</v>
       </c>
       <c r="D179" s="4">
-        <v>31563</v>
+        <v>32006</v>
       </c>
       <c r="E179" s="4">
-        <v>253123</v>
+        <v>254323</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4097,16 +4097,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C180" s="4">
         <v>176</v>
       </c>
       <c r="D180" s="4">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E180" s="4">
-        <v>875</v>
+        <v>879</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4114,16 +4114,16 @@
         <v>184</v>
       </c>
       <c r="B181" s="4">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="C181" s="4">
         <v>212</v>
       </c>
       <c r="D181" s="4">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E181" s="4">
-        <v>1069</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>22991</v>
+        <v>23205</v>
       </c>
       <c r="C182" s="4">
-        <v>4966</v>
+        <v>4971</v>
       </c>
       <c r="D182" s="4">
-        <v>6690</v>
+        <v>6768</v>
       </c>
       <c r="E182" s="4">
-        <v>34647</v>
+        <v>34944</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>11557</v>
+        <v>11614</v>
       </c>
       <c r="C183" s="4">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D183" s="4">
-        <v>3359</v>
+        <v>3370</v>
       </c>
       <c r="E183" s="4">
-        <v>15782</v>
+        <v>15851</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,16 +4165,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>7654</v>
+        <v>7657</v>
       </c>
       <c r="C184" s="4">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="D184" s="4">
-        <v>1860</v>
+        <v>1939</v>
       </c>
       <c r="E184" s="4">
-        <v>10424</v>
+        <v>10511</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>56894</v>
+        <v>57219</v>
       </c>
       <c r="C185" s="4">
-        <v>5526</v>
+        <v>5536</v>
       </c>
       <c r="D185" s="4">
-        <v>12579</v>
+        <v>12680</v>
       </c>
       <c r="E185" s="4">
-        <v>74999</v>
+        <v>75435</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4199,16 +4199,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="C186" s="4">
         <v>208</v>
       </c>
       <c r="D186" s="4">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="E186" s="4">
-        <v>2773</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,16 +4216,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>8518</v>
+        <v>8584</v>
       </c>
       <c r="C187" s="4">
         <v>82</v>
       </c>
       <c r="D187" s="4">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E187" s="4">
-        <v>9286</v>
+        <v>9356</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>26523</v>
+        <v>26592</v>
       </c>
       <c r="C188" s="4">
-        <v>1057</v>
+        <v>1062</v>
       </c>
       <c r="D188" s="4">
-        <v>3728</v>
+        <v>3755</v>
       </c>
       <c r="E188" s="4">
-        <v>31308</v>
+        <v>31409</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>62991</v>
+        <v>63063</v>
       </c>
       <c r="C189" s="4">
-        <v>5974</v>
+        <v>5977</v>
       </c>
       <c r="D189" s="4">
-        <v>7930</v>
+        <v>8047</v>
       </c>
       <c r="E189" s="4">
-        <v>76895</v>
+        <v>77087</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4267,7 +4267,7 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>6875</v>
+        <v>6876</v>
       </c>
       <c r="C190" s="4">
         <v>35</v>
@@ -4276,7 +4276,7 @@
         <v>879</v>
       </c>
       <c r="E190" s="4">
-        <v>7789</v>
+        <v>7790</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>2390</v>
+        <v>2395</v>
       </c>
       <c r="C191" s="4">
         <v>361</v>
       </c>
       <c r="D191" s="4">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="E191" s="4">
-        <v>3225</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>40124</v>
+        <v>40183</v>
       </c>
       <c r="C192" s="4">
-        <v>12111</v>
+        <v>12119</v>
       </c>
       <c r="D192" s="4">
-        <v>7706</v>
+        <v>7835</v>
       </c>
       <c r="E192" s="4">
-        <v>59941</v>
+        <v>60137</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4324,10 +4324,10 @@
         <v>27</v>
       </c>
       <c r="D193" s="4">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E193" s="4">
-        <v>1188</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4335,16 +4335,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>1661</v>
+        <v>1668</v>
       </c>
       <c r="C194" s="4">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D194" s="4">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="E194" s="4">
-        <v>2123</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4352,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>5027</v>
+        <v>5071</v>
       </c>
       <c r="C195" s="4">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D195" s="4">
-        <v>953</v>
+        <v>991</v>
       </c>
       <c r="E195" s="4">
-        <v>6440</v>
+        <v>6523</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,16 +4369,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>4726</v>
+        <v>4730</v>
       </c>
       <c r="C196" s="4">
         <v>120</v>
       </c>
       <c r="D196" s="4">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E196" s="4">
-        <v>5324</v>
+        <v>5329</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4386,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>3494</v>
+        <v>3500</v>
       </c>
       <c r="C197" s="4">
         <v>334</v>
       </c>
       <c r="D197" s="4">
-        <v>1870</v>
+        <v>1883</v>
       </c>
       <c r="E197" s="4">
-        <v>5698</v>
+        <v>5717</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>9949</v>
+        <v>9986</v>
       </c>
       <c r="C199" s="4">
         <v>251</v>
       </c>
       <c r="D199" s="4">
-        <v>4596</v>
+        <v>4799</v>
       </c>
       <c r="E199" s="4">
-        <v>14796</v>
+        <v>15036</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>61618</v>
+        <v>61936</v>
       </c>
       <c r="C200" s="4">
-        <v>4713</v>
+        <v>4721</v>
       </c>
       <c r="D200" s="4">
-        <v>3741</v>
+        <v>3765</v>
       </c>
       <c r="E200" s="4">
-        <v>70072</v>
+        <v>70422</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4454,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>5209</v>
+        <v>5218</v>
       </c>
       <c r="C201" s="4">
         <v>136</v>
       </c>
       <c r="D201" s="4">
-        <v>2116</v>
+        <v>2134</v>
       </c>
       <c r="E201" s="4">
-        <v>7461</v>
+        <v>7488</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>15875</v>
+        <v>15898</v>
       </c>
       <c r="C202" s="4">
-        <v>1792</v>
+        <v>1806</v>
       </c>
       <c r="D202" s="4">
-        <v>1628</v>
+        <v>1640</v>
       </c>
       <c r="E202" s="4">
-        <v>19295</v>
+        <v>19344</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>4933</v>
+        <v>4939</v>
       </c>
       <c r="C203" s="4">
         <v>357</v>
       </c>
       <c r="D203" s="4">
-        <v>1422</v>
+        <v>1428</v>
       </c>
       <c r="E203" s="4">
-        <v>6712</v>
+        <v>6724</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>4657</v>
+        <v>4664</v>
       </c>
       <c r="C204" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D204" s="4">
-        <v>1410</v>
+        <v>1419</v>
       </c>
       <c r="E204" s="4">
-        <v>6127</v>
+        <v>6144</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>13204</v>
+        <v>13272</v>
       </c>
       <c r="C205" s="4">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="D205" s="4">
-        <v>1844</v>
+        <v>1855</v>
       </c>
       <c r="E205" s="4">
-        <v>16394</v>
+        <v>16476</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>24897</v>
+        <v>24987</v>
       </c>
       <c r="C206" s="4">
-        <v>6590</v>
+        <v>6624</v>
       </c>
       <c r="D206" s="4">
-        <v>10789</v>
+        <v>10933</v>
       </c>
       <c r="E206" s="4">
-        <v>42276</v>
+        <v>42544</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4556,7 +4556,7 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>2414</v>
+        <v>2423</v>
       </c>
       <c r="C207" s="4">
         <v>75</v>
@@ -4565,7 +4565,7 @@
         <v>1496</v>
       </c>
       <c r="E207" s="4">
-        <v>3985</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4573,16 +4573,16 @@
         <v>211</v>
       </c>
       <c r="B208" s="4">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="C208" s="4">
         <v>12</v>
       </c>
       <c r="D208" s="4">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E208" s="4">
-        <v>1153</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4590,16 +4590,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>15464</v>
+        <v>15472</v>
       </c>
       <c r="C209" s="4">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D209" s="4">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E209" s="4">
-        <v>16121</v>
+        <v>16132</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4607,16 +4607,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C210" s="4">
         <v>65</v>
       </c>
       <c r="D210" s="4">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E210" s="4">
-        <v>1071</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>10215</v>
+        <v>10257</v>
       </c>
       <c r="C211" s="4">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D211" s="4">
-        <v>2248</v>
+        <v>2256</v>
       </c>
       <c r="E211" s="4">
-        <v>12838</v>
+        <v>12889</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4647,10 +4647,10 @@
         <v>97</v>
       </c>
       <c r="D212" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E212" s="4">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="213" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>154901</v>
+        <v>155212</v>
       </c>
       <c r="C213" s="4">
-        <v>8680</v>
+        <v>8698</v>
       </c>
       <c r="D213" s="4">
-        <v>14831</v>
+        <v>14990</v>
       </c>
       <c r="E213" s="4">
-        <v>178412</v>
+        <v>178900</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4675,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>3648</v>
+        <v>3657</v>
       </c>
       <c r="C214" s="4">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D214" s="4">
-        <v>3533</v>
+        <v>3542</v>
       </c>
       <c r="E214" s="4">
-        <v>7535</v>
+        <v>7554</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>42111</v>
+        <v>42428</v>
       </c>
       <c r="C215" s="4">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="D215" s="4">
-        <v>4823</v>
+        <v>4839</v>
       </c>
       <c r="E215" s="4">
-        <v>47432</v>
+        <v>47774</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>2322</v>
+        <v>2327</v>
       </c>
       <c r="C216" s="4">
         <v>129</v>
       </c>
       <c r="D216" s="4">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="E216" s="4">
-        <v>3751</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4726,16 +4726,16 @@
         <v>220</v>
       </c>
       <c r="B217" s="4">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C217" s="4">
         <v>6</v>
       </c>
       <c r="D217" s="4">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E217" s="4">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4777,16 +4777,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>3168</v>
+        <v>3170</v>
       </c>
       <c r="C220" s="4">
         <v>252</v>
       </c>
       <c r="D220" s="4">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="E220" s="4">
-        <v>4079</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>1341485</v>
+        <v>1347344</v>
       </c>
       <c r="C221" s="4">
-        <v>83529</v>
+        <v>83627</v>
       </c>
       <c r="D221" s="4">
-        <v>121346</v>
+        <v>122394</v>
       </c>
       <c r="E221" s="4">
-        <v>1546360</v>
+        <v>1553365</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>75486</v>
+        <v>75906</v>
       </c>
       <c r="C222" s="4">
-        <v>3016</v>
+        <v>3019</v>
       </c>
       <c r="D222" s="4">
-        <v>31061</v>
+        <v>31528</v>
       </c>
       <c r="E222" s="4">
-        <v>109563</v>
+        <v>110453</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4828,7 +4828,7 @@
         <v>226</v>
       </c>
       <c r="B223" s="4">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C223" s="4">
         <v>3</v>
@@ -4837,7 +4837,7 @@
         <v>49</v>
       </c>
       <c r="E223" s="4">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="224" ht="14" customHeight="1">
@@ -4845,16 +4845,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>2773</v>
+        <v>2776</v>
       </c>
       <c r="C224" s="4">
         <v>101</v>
       </c>
       <c r="D224" s="4">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="E224" s="4">
-        <v>3824</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4879,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>19698</v>
+        <v>19754</v>
       </c>
       <c r="C226" s="4">
         <v>1010</v>
       </c>
       <c r="D226" s="4">
-        <v>2713</v>
+        <v>2720</v>
       </c>
       <c r="E226" s="4">
-        <v>23421</v>
+        <v>23484</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>66564</v>
+        <v>66711</v>
       </c>
       <c r="C227" s="4">
-        <v>1418</v>
+        <v>1422</v>
       </c>
       <c r="D227" s="4">
-        <v>33286</v>
+        <v>33426</v>
       </c>
       <c r="E227" s="4">
-        <v>101268</v>
+        <v>101559</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>808583</v>
+        <v>813010</v>
       </c>
       <c r="C228" s="4">
-        <v>37197</v>
+        <v>37272</v>
       </c>
       <c r="D228" s="4">
-        <v>88315</v>
+        <v>89016</v>
       </c>
       <c r="E228" s="4">
-        <v>934095</v>
+        <v>939298</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>8916</v>
+        <v>8950</v>
       </c>
       <c r="C229" s="4">
         <v>207</v>
       </c>
       <c r="D229" s="4">
-        <v>1981</v>
+        <v>1984</v>
       </c>
       <c r="E229" s="4">
-        <v>11104</v>
+        <v>11141</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>7558</v>
+        <v>7573</v>
       </c>
       <c r="C230" s="4">
         <v>832</v>
       </c>
       <c r="D230" s="4">
-        <v>3459</v>
+        <v>3514</v>
       </c>
       <c r="E230" s="4">
-        <v>11849</v>
+        <v>11919</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>9061</v>
+        <v>9133</v>
       </c>
       <c r="C231" s="4">
-        <v>1789</v>
+        <v>1799</v>
       </c>
       <c r="D231" s="4">
-        <v>2721</v>
+        <v>2737</v>
       </c>
       <c r="E231" s="4">
-        <v>13571</v>
+        <v>13669</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4981,16 +4981,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="C232" s="4">
         <v>65</v>
       </c>
       <c r="D232" s="4">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="E232" s="4">
-        <v>2122</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -4998,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>21137</v>
+        <v>21278</v>
       </c>
       <c r="C233" s="4">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D233" s="4">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="E233" s="4">
-        <v>22339</v>
+        <v>22485</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>37445</v>
+        <v>37580</v>
       </c>
       <c r="C234" s="4">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D234" s="4">
-        <v>5527</v>
+        <v>5529</v>
       </c>
       <c r="E234" s="4">
-        <v>44045</v>
+        <v>44183</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>15708</v>
+        <v>15755</v>
       </c>
       <c r="C235" s="4">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="D235" s="4">
-        <v>4564</v>
+        <v>4628</v>
       </c>
       <c r="E235" s="4">
-        <v>21919</v>
+        <v>22032</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>33594</v>
+        <v>33741</v>
       </c>
       <c r="C236" s="4">
-        <v>1351</v>
+        <v>1355</v>
       </c>
       <c r="D236" s="4">
-        <v>10271</v>
+        <v>10372</v>
       </c>
       <c r="E236" s="4">
-        <v>45216</v>
+        <v>45468</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>82861</v>
+        <v>83227</v>
       </c>
       <c r="C237" s="4">
-        <v>1069</v>
+        <v>1076</v>
       </c>
       <c r="D237" s="4">
-        <v>5578</v>
+        <v>5609</v>
       </c>
       <c r="E237" s="4">
-        <v>89508</v>
+        <v>89912</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>26070</v>
+        <v>26199</v>
       </c>
       <c r="C238" s="4">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="D238" s="4">
-        <v>1520</v>
+        <v>1561</v>
       </c>
       <c r="E238" s="4">
-        <v>28277</v>
+        <v>28450</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5100,16 +5100,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>4027</v>
+        <v>4058</v>
       </c>
       <c r="C239" s="4">
         <v>110</v>
       </c>
       <c r="D239" s="4">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E239" s="4">
-        <v>4405</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>31139</v>
+        <v>31378</v>
       </c>
       <c r="C240" s="4">
         <v>506</v>
       </c>
       <c r="D240" s="4">
-        <v>3410</v>
+        <v>3415</v>
       </c>
       <c r="E240" s="4">
-        <v>35055</v>
+        <v>35299</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>305448</v>
+        <v>306849</v>
       </c>
       <c r="C241" s="4">
-        <v>4131</v>
+        <v>4139</v>
       </c>
       <c r="D241" s="4">
-        <v>32038</v>
+        <v>32085</v>
       </c>
       <c r="E241" s="4">
-        <v>341617</v>
+        <v>343073</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>26767</v>
+        <v>26836</v>
       </c>
       <c r="C242" s="4">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="D242" s="4">
-        <v>1758</v>
+        <v>1786</v>
       </c>
       <c r="E242" s="4">
-        <v>29239</v>
+        <v>29339</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5168,16 +5168,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="C243" s="4">
         <v>276</v>
       </c>
       <c r="D243" s="4">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="E243" s="4">
-        <v>3445</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>95045</v>
+        <v>95153</v>
       </c>
       <c r="C244" s="4">
-        <v>4862</v>
+        <v>4871</v>
       </c>
       <c r="D244" s="4">
-        <v>15542</v>
+        <v>15703</v>
       </c>
       <c r="E244" s="4">
-        <v>115449</v>
+        <v>115727</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,16 +5202,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>10207</v>
+        <v>10233</v>
       </c>
       <c r="C245" s="4">
         <v>462</v>
       </c>
       <c r="D245" s="4">
-        <v>3180</v>
+        <v>3181</v>
       </c>
       <c r="E245" s="4">
-        <v>13849</v>
+        <v>13876</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>19091</v>
+        <v>19175</v>
       </c>
       <c r="C246" s="4">
         <v>157</v>
       </c>
       <c r="D246" s="4">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="E246" s="4">
-        <v>20165</v>
+        <v>20253</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>344257</v>
+        <v>346705</v>
       </c>
       <c r="C247" s="4">
-        <v>13204</v>
+        <v>13249</v>
       </c>
       <c r="D247" s="4">
-        <v>36507</v>
+        <v>36881</v>
       </c>
       <c r="E247" s="4">
-        <v>393968</v>
+        <v>396835</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>25958</v>
+        <v>26191</v>
       </c>
       <c r="C248" s="4">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D248" s="4">
-        <v>5068</v>
+        <v>5125</v>
       </c>
       <c r="E248" s="4">
-        <v>31863</v>
+        <v>32154</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5270,7 +5270,7 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C249" s="4">
         <v>40</v>
@@ -5279,7 +5279,7 @@
         <v>144</v>
       </c>
       <c r="E249" s="4">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>38307</v>
+        <v>38532</v>
       </c>
       <c r="C250" s="4">
-        <v>2916</v>
+        <v>2925</v>
       </c>
       <c r="D250" s="4">
-        <v>4091</v>
+        <v>4112</v>
       </c>
       <c r="E250" s="4">
-        <v>45314</v>
+        <v>45569</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>14216</v>
+        <v>14248</v>
       </c>
       <c r="C251" s="4">
-        <v>1700</v>
+        <v>1705</v>
       </c>
       <c r="D251" s="4">
-        <v>2674</v>
+        <v>2691</v>
       </c>
       <c r="E251" s="4">
-        <v>18590</v>
+        <v>18644</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5321,7 +5321,7 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>2078</v>
+        <v>2084</v>
       </c>
       <c r="C252" s="4">
         <v>81</v>
@@ -5330,7 +5330,7 @@
         <v>358</v>
       </c>
       <c r="E252" s="4">
-        <v>2517</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5338,16 +5338,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>6013</v>
+        <v>6015</v>
       </c>
       <c r="C253" s="4">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D253" s="4">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="E253" s="4">
-        <v>7755</v>
+        <v>7760</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>14518</v>
+        <v>14570</v>
       </c>
       <c r="C254" s="4">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D254" s="4">
-        <v>2887</v>
+        <v>2892</v>
       </c>
       <c r="E254" s="4">
-        <v>17518</v>
+        <v>17577</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,16 +5372,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>8361</v>
+        <v>8393</v>
       </c>
       <c r="C255" s="4">
         <v>210</v>
       </c>
       <c r="D255" s="4">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E255" s="4">
-        <v>8914</v>
+        <v>8949</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>127511</v>
+        <v>127576</v>
       </c>
       <c r="C256" s="4">
-        <v>5654</v>
+        <v>5817</v>
       </c>
       <c r="D256" s="4">
-        <v>3052</v>
+        <v>3147</v>
       </c>
       <c r="E256" s="4">
-        <v>136217</v>
+        <v>136540</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>18414867</v>
+        <v>18506265</v>
       </c>
       <c r="C257" s="4">
-        <v>974278</v>
+        <v>977294</v>
       </c>
       <c r="D257" s="4">
-        <v>2063225</v>
+        <v>2083584</v>
       </c>
       <c r="E257" s="4">
-        <v>21452370</v>
+        <v>21567143</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
